--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,12 @@
         <v>Data type</v>
       </c>
       <c r="E1" t="str">
+        <v>Component required</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Page is conditional</v>
+      </c>
+      <c r="G1" t="str">
         <v>Required</v>
       </c>
     </row>
@@ -437,6 +443,12 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -454,6 +466,12 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -471,6 +489,12 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -488,6 +512,12 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -505,6 +535,12 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -522,6 +558,12 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -539,6 +581,12 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -556,6 +604,12 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -573,6 +627,12 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -590,6 +650,12 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -607,6 +673,12 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -624,6 +696,12 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -641,6 +719,12 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -658,6 +742,12 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -675,6 +765,12 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -692,6 +788,12 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -709,6 +811,12 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -726,6 +834,12 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -743,6 +857,12 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -760,6 +880,12 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -777,6 +903,12 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -794,6 +926,12 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -811,6 +949,12 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -828,6 +972,12 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -845,6 +995,12 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -862,6 +1018,12 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -879,6 +1041,12 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -896,6 +1064,12 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -913,6 +1087,12 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -930,6 +1110,12 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -947,6 +1133,12 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -964,6 +1156,12 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -981,6 +1179,12 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -998,6 +1202,12 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1015,6 +1225,12 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1032,6 +1248,12 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1049,6 +1271,12 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1066,6 +1294,12 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1083,6 +1317,12 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1100,6 +1340,12 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1117,6 +1363,12 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1134,6 +1386,12 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1151,6 +1409,12 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1168,6 +1432,12 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1185,6 +1455,12 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1202,6 +1478,12 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1219,17 +1501,23 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G48"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,6 +1536,12 @@
         <v>Data type</v>
       </c>
       <c r="E1" t="str">
+        <v>Component required</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Page is conditional</v>
+      </c>
+      <c r="G1" t="str">
         <v>Required</v>
       </c>
     </row>
@@ -1267,6 +1561,12 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1284,6 +1584,12 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1301,6 +1607,12 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1318,6 +1630,12 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1335,6 +1653,12 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1352,6 +1676,12 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1369,6 +1699,12 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1386,6 +1722,12 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1403,6 +1745,12 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1420,6 +1768,12 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1437,6 +1791,12 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1454,6 +1814,12 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1471,6 +1837,12 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1488,6 +1860,12 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1505,6 +1883,12 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1522,6 +1906,12 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1539,6 +1929,12 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1556,6 +1952,12 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1573,6 +1975,12 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1590,6 +1998,12 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1607,6 +2021,12 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1624,6 +2044,12 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1641,6 +2067,12 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1658,6 +2090,12 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1675,6 +2113,12 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1692,6 +2136,12 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1709,6 +2159,12 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1726,6 +2182,12 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1743,6 +2205,12 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1760,6 +2228,12 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1777,6 +2251,12 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1794,6 +2274,12 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1811,6 +2297,12 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1828,6 +2320,12 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1845,6 +2343,12 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1862,6 +2366,12 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1879,6 +2389,12 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1896,6 +2412,12 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1913,6 +2435,12 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1930,6 +2458,12 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1947,6 +2481,12 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1964,6 +2504,12 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1981,6 +2527,12 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1998,6 +2550,12 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2015,6 +2573,12 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2032,6 +2596,12 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2049,6 +2619,12 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2066,6 +2642,12 @@
       <c r="E49" t="b">
         <v>1</v>
       </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2083,6 +2665,12 @@
       <c r="E50" t="b">
         <v>1</v>
       </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2100,6 +2688,12 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -2117,6 +2711,12 @@
       <c r="E52" t="b">
         <v>1</v>
       </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -2134,6 +2734,12 @@
       <c r="E53" t="b">
         <v>1</v>
       </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -2151,6 +2757,12 @@
       <c r="E54" t="b">
         <v>1</v>
       </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -2168,6 +2780,12 @@
       <c r="E55" t="b">
         <v>1</v>
       </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -2185,6 +2803,12 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -2202,6 +2826,12 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -2219,6 +2849,12 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -2236,6 +2872,12 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -2253,6 +2895,12 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -2270,6 +2918,12 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -2287,6 +2941,12 @@
       <c r="E62" t="b">
         <v>1</v>
       </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -2304,6 +2964,12 @@
       <c r="E63" t="b">
         <v>1</v>
       </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -2321,6 +2987,12 @@
       <c r="E64" t="b">
         <v>1</v>
       </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -2338,6 +3010,12 @@
       <c r="E65" t="b">
         <v>1</v>
       </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -2355,6 +3033,12 @@
       <c r="E66" t="b">
         <v>1</v>
       </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -2372,6 +3056,12 @@
       <c r="E67" t="b">
         <v>1</v>
       </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -2389,6 +3079,12 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -2406,6 +3102,12 @@
       <c r="E69" t="b">
         <v>1</v>
       </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -2423,6 +3125,12 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -2440,6 +3148,12 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -2457,6 +3171,12 @@
       <c r="E72" t="b">
         <v>1</v>
       </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -2474,17 +3194,23 @@
       <c r="E73" t="b">
         <v>1</v>
       </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G73"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2503,6 +3229,12 @@
         <v>Data type</v>
       </c>
       <c r="E1" t="str">
+        <v>Component required</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Page is conditional</v>
+      </c>
+      <c r="G1" t="str">
         <v>Required</v>
       </c>
     </row>
@@ -2522,6 +3254,12 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2539,6 +3277,12 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2556,6 +3300,12 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2573,6 +3323,12 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2590,6 +3346,12 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2607,6 +3369,12 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -2624,6 +3392,12 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2641,6 +3415,12 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2658,6 +3438,12 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2675,6 +3461,12 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2692,6 +3484,12 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2709,6 +3507,12 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2726,6 +3530,12 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -2743,6 +3553,12 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -2760,6 +3576,12 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -2777,6 +3599,12 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -2794,6 +3622,12 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -2811,6 +3645,12 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -2828,6 +3668,12 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -2845,6 +3691,12 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -2862,6 +3714,12 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -2879,6 +3737,12 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -2896,6 +3760,12 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -2913,6 +3783,12 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -2930,6 +3806,12 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -2947,6 +3829,12 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -2964,6 +3852,12 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -2981,6 +3875,12 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -2998,6 +3898,12 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -3015,6 +3921,12 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -3032,6 +3944,12 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -3049,6 +3967,12 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -3066,6 +3990,12 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -3083,6 +4013,12 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -3100,6 +4036,12 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -3117,6 +4059,12 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -3134,6 +4082,12 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -3151,6 +4105,12 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -3168,6 +4128,12 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -3185,6 +4151,12 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -3202,6 +4174,12 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -3219,6 +4197,12 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -3236,6 +4220,12 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -3253,6 +4243,12 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -3270,6 +4266,12 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -3287,6 +4289,12 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -3304,6 +4312,12 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -3321,6 +4335,12 @@
       <c r="E49" t="b">
         <v>1</v>
       </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -3338,6 +4358,12 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -3355,6 +4381,12 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -3372,6 +4404,12 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -3389,6 +4427,12 @@
       <c r="E53" t="b">
         <v>1</v>
       </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -3406,6 +4450,12 @@
       <c r="E54" t="b">
         <v>1</v>
       </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -3423,6 +4473,12 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -3440,6 +4496,12 @@
       <c r="E56" t="b">
         <v>1</v>
       </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -3457,6 +4519,12 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -3474,6 +4542,12 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -3491,6 +4565,12 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -3508,6 +4588,12 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -3525,6 +4611,12 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -3542,6 +4634,12 @@
       <c r="E62" t="b">
         <v>1</v>
       </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -3559,6 +4657,12 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -3576,6 +4680,12 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -3593,6 +4703,12 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -3610,6 +4726,12 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -3627,6 +4749,12 @@
       <c r="E67" t="b">
         <v>1</v>
       </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3644,6 +4772,12 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3661,6 +4795,12 @@
       <c r="E69" t="b">
         <v>1</v>
       </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -3678,6 +4818,12 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3695,6 +4841,12 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -3712,6 +4864,12 @@
       <c r="E72" t="b">
         <v>0</v>
       </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -3729,6 +4887,12 @@
       <c r="E73" t="b">
         <v>0</v>
       </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -3746,10 +4910,16 @@
       <c r="E74" t="b">
         <v>1</v>
       </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G74"/>
   </ignoredErrors>
 </worksheet>
 </file>